--- a/public/galerias/categories_shopee.xlsx
+++ b/public/galerias/categories_shopee.xlsx
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
